--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_04_07.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_04_07.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11234F7-4D7A-43DD-9564-E60597825496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C80144-AB8B-40C6-83B5-F5EBD7139D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
     <sheet name="Geburtstagsliste" sheetId="17" r:id="rId2"/>
-    <sheet name="Geburtstagsliste_Template" sheetId="18" r:id="rId3"/>
-    <sheet name="Einheiten umrechnen" sheetId="16" r:id="rId4"/>
-    <sheet name="Flächenberechnungen" sheetId="14" r:id="rId5"/>
-    <sheet name="Kinematik_1" sheetId="4" r:id="rId6"/>
-    <sheet name="Kinematik_2" sheetId="9" r:id="rId7"/>
-    <sheet name="Kinematik_2_Berechnungen" sheetId="11" r:id="rId8"/>
-    <sheet name="Fourierreihe" sheetId="12" r:id="rId9"/>
-    <sheet name="Scheinleistung" sheetId="15" r:id="rId10"/>
+    <sheet name="Einheiten umrechnen" sheetId="16" r:id="rId3"/>
+    <sheet name="Flächenberechnungen" sheetId="14" r:id="rId4"/>
+    <sheet name="Kinematik_1" sheetId="4" r:id="rId5"/>
+    <sheet name="Kinematik_2" sheetId="9" r:id="rId6"/>
+    <sheet name="Kinematik_2_Berechnungen" sheetId="11" r:id="rId7"/>
+    <sheet name="Fourierreihe" sheetId="12" r:id="rId8"/>
+    <sheet name="Scheinleistung" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Geburtstagsliste!$A$4:$Q$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Geburtstagsliste_Template!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Geburtstagsliste!$A$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="214">
   <si>
     <t>x:</t>
   </si>
@@ -1692,12 +1690,6 @@
     <t>Geburtstagsliste</t>
   </si>
   <si>
-    <t>Alter in diesem Jahr</t>
-  </si>
-  <si>
-    <t>Alter aktuell</t>
-  </si>
-  <si>
     <t>Geburtsdatum</t>
   </si>
   <si>
@@ -1735,6 +1727,14 @@
   </si>
   <si>
     <t>Sorter</t>
+  </si>
+  <si>
+    <t>Alter
+aktuell</t>
+  </si>
+  <si>
+    <t>Alter in 
+diesem Jahr</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2896,29 +2896,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2944,38 +2953,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2989,22 +2989,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -12259,72 +12253,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>293007</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>143329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>463550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Pfeil: nach rechts 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DBCD81-7F87-4D06-9602-82B9CF5B9B1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1058182" y="140154"/>
-          <a:ext cx="770618" cy="326571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>293007</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -12387,7 +12315,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12453,7 +12381,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12593,7 +12521,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12731,7 +12659,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12797,7 +12725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -12956,7 +12884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -13382,7 +13310,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13456,7 +13384,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="89">
-        <v>45752</v>
+        <v>45758</v>
       </c>
       <c r="C12" s="90" t="s">
         <v>198</v>
@@ -13478,3296 +13406,1970 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF7D5C-D0F8-40D0-BDC5-363CB671BB60}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:AY19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="9" width="3.26953125" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.90625" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" customWidth="1"/>
-    <col min="13" max="51" width="6.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:51" ht="26" x14ac:dyDescent="0.6">
-      <c r="C2" s="44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R5" s="5"/>
-      <c r="S5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="55">
-        <f>MAX(K14:K18)</f>
-        <v>9.9999999999999911</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5">
-        <f>K12</f>
-        <v>210</v>
-      </c>
-      <c r="X5" s="5">
-        <f>W5</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R6" s="5"/>
-      <c r="S6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="55">
-        <f>MIN(K14:K18)</f>
-        <v>0.86602540378444159</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="55">
-        <f>T6</f>
-        <v>0.86602540378444159</v>
-      </c>
-      <c r="X6" s="55">
-        <f>T5</f>
-        <v>9.9999999999999911</v>
-      </c>
-    </row>
-    <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R7" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="5">
-        <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
-        <v>9.9999999999999911</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="AI7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP7" s="103"/>
-    </row>
-    <row r="8" spans="3:51" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R8" s="1"/>
-      <c r="S8" s="39"/>
-      <c r="AI8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="L11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="46">
-        <v>15</v>
-      </c>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-    </row>
-    <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="J12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="38">
-        <v>210</v>
-      </c>
-      <c r="L12" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="38">
-        <v>0</v>
-      </c>
-      <c r="N12" s="75">
-        <f>M12+$M$11</f>
-        <v>15</v>
-      </c>
-      <c r="O12" s="75">
-        <f t="shared" ref="O12:AY12" si="0">N12+$M$11</f>
-        <v>30</v>
-      </c>
-      <c r="P12" s="75">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="Q12" s="75">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="R12" s="75">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="S12" s="75">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="T12" s="75">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="U12" s="75">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="V12" s="75">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="W12" s="75">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="X12" s="75">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="Y12" s="75">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="Z12" s="75">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="AA12" s="75">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="AB12" s="75">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="AC12" s="75">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="AD12" s="75">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="AE12" s="75">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="AF12" s="75">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="AG12" s="75">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="AH12" s="75">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="AI12" s="75">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="AJ12" s="75">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="AK12" s="75">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="AL12" s="75">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="AM12" s="75">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="AN12" s="75">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="AO12" s="75">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="AP12" s="75">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="AQ12" s="75">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="AR12" s="75">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="AS12" s="75">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="AT12" s="75">
-        <f t="shared" si="0"/>
-        <v>495</v>
-      </c>
-      <c r="AU12" s="75">
-        <f t="shared" si="0"/>
-        <v>510</v>
-      </c>
-      <c r="AV12" s="75">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="AW12" s="75">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="AX12" s="75">
-        <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="AY12" s="75">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="13" spans="3:51" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="J13" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="65">
-        <f t="shared" ref="K13" si="1">PI()*K12/180</f>
-        <v>3.6651914291880923</v>
-      </c>
-      <c r="L13" s="156"/>
-      <c r="M13" s="64">
-        <f>PI()*M12/180</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="64">
-        <f>PI()*N12/180</f>
-        <v>0.26179938779914941</v>
-      </c>
-      <c r="O13" s="64">
-        <f t="shared" ref="O13:AY13" si="2">PI()*O12/180</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="P13" s="64">
-        <f t="shared" si="2"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="Q13" s="64">
-        <f t="shared" si="2"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="R13" s="64">
-        <f t="shared" si="2"/>
-        <v>1.3089969389957472</v>
-      </c>
-      <c r="S13" s="64">
-        <f t="shared" si="2"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T13" s="64">
-        <f t="shared" si="2"/>
-        <v>1.8325957145940461</v>
-      </c>
-      <c r="U13" s="64">
-        <f t="shared" si="2"/>
-        <v>2.0943951023931953</v>
-      </c>
-      <c r="V13" s="64">
-        <f t="shared" si="2"/>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="W13" s="64">
-        <f t="shared" si="2"/>
-        <v>2.6179938779914944</v>
-      </c>
-      <c r="X13" s="64">
-        <f t="shared" si="2"/>
-        <v>2.8797932657906435</v>
-      </c>
-      <c r="Y13" s="64">
-        <f t="shared" si="2"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="Z13" s="64">
-        <f t="shared" si="2"/>
-        <v>3.4033920413889422</v>
-      </c>
-      <c r="AA13" s="64">
-        <f t="shared" si="2"/>
-        <v>3.6651914291880923</v>
-      </c>
-      <c r="AB13" s="64">
-        <f t="shared" si="2"/>
-        <v>3.9269908169872414</v>
-      </c>
-      <c r="AC13" s="64">
-        <f t="shared" si="2"/>
-        <v>4.1887902047863905</v>
-      </c>
-      <c r="AD13" s="64">
-        <f t="shared" si="2"/>
-        <v>4.4505895925855405</v>
-      </c>
-      <c r="AE13" s="64">
-        <f t="shared" si="2"/>
-        <v>4.7123889803846897</v>
-      </c>
-      <c r="AF13" s="64">
-        <f t="shared" si="2"/>
-        <v>4.9741883681838397</v>
-      </c>
-      <c r="AG13" s="64">
-        <f t="shared" si="2"/>
-        <v>5.2359877559829888</v>
-      </c>
-      <c r="AH13" s="64">
-        <f t="shared" si="2"/>
-        <v>5.497787143782138</v>
-      </c>
-      <c r="AI13" s="64">
-        <f t="shared" si="2"/>
-        <v>5.7595865315812871</v>
-      </c>
-      <c r="AJ13" s="64">
-        <f t="shared" si="2"/>
-        <v>6.0213859193804371</v>
-      </c>
-      <c r="AK13" s="64">
-        <f t="shared" si="2"/>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="AL13" s="64">
-        <f t="shared" si="2"/>
-        <v>6.5449846949787354</v>
-      </c>
-      <c r="AM13" s="64">
-        <f t="shared" si="2"/>
-        <v>6.8067840827778845</v>
-      </c>
-      <c r="AN13" s="64">
-        <f t="shared" si="2"/>
-        <v>7.0685834705770336</v>
-      </c>
-      <c r="AO13" s="64">
-        <f t="shared" si="2"/>
-        <v>7.3303828583761845</v>
-      </c>
-      <c r="AP13" s="64">
-        <f t="shared" si="2"/>
-        <v>7.5921822461753337</v>
-      </c>
-      <c r="AQ13" s="64">
-        <f t="shared" si="2"/>
-        <v>7.8539816339744828</v>
-      </c>
-      <c r="AR13" s="64">
-        <f t="shared" si="2"/>
-        <v>8.1157810217736319</v>
-      </c>
-      <c r="AS13" s="64">
-        <f t="shared" si="2"/>
-        <v>8.3775804095727811</v>
-      </c>
-      <c r="AT13" s="64">
-        <f t="shared" si="2"/>
-        <v>8.639379797371932</v>
-      </c>
-      <c r="AU13" s="64">
-        <f t="shared" si="2"/>
-        <v>8.9011791851710811</v>
-      </c>
-      <c r="AV13" s="64">
-        <f t="shared" si="2"/>
-        <v>9.1629785729702302</v>
-      </c>
-      <c r="AW13" s="64">
-        <f t="shared" si="2"/>
-        <v>9.4247779607693793</v>
-      </c>
-      <c r="AX13" s="64">
-        <f t="shared" si="2"/>
-        <v>9.6865773485685303</v>
-      </c>
-      <c r="AY13" s="64">
-        <f t="shared" si="2"/>
-        <v>9.9483767363676794</v>
-      </c>
-    </row>
-    <row r="14" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C14" s="42">
-        <v>20</v>
-      </c>
-      <c r="D14" s="42">
-        <v>50</v>
-      </c>
-      <c r="E14" s="42">
-        <v>90</v>
-      </c>
-      <c r="F14" s="73">
-        <f>PI()*E14/180</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="J14" s="58" t="str">
-        <f>_xlfn.CONCAT("U = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(F14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F14,2),""),""),") = ")</f>
-        <v xml:space="preserve">U = 20 * sin(50*x  + 1.57) = </v>
-      </c>
-      <c r="K14" s="66">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*K13 + $F$14),0)</f>
-        <v>9.9999999999999911</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="54">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*M13 + $F$14),0)</f>
-        <v>20</v>
-      </c>
-      <c r="N14" s="54">
-        <f t="shared" ref="N14:AY14" si="3">IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),0)</f>
-        <v>17.320508075688785</v>
-      </c>
-      <c r="O14" s="54">
-        <f t="shared" si="3"/>
-        <v>10.000000000000009</v>
-      </c>
-      <c r="P14" s="54">
-        <f t="shared" si="3"/>
-        <v>-3.9200413748385898E-14</v>
-      </c>
-      <c r="Q14" s="54">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999538</v>
-      </c>
-      <c r="R14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.3205080756887</v>
-      </c>
-      <c r="S14" s="54">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="T14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.320508075688796</v>
-      </c>
-      <c r="U14" s="54">
-        <f t="shared" si="3"/>
-        <v>-10.000000000000247</v>
-      </c>
-      <c r="V14" s="54">
-        <f t="shared" si="3"/>
-        <v>-2.3521982972507516E-13</v>
-      </c>
-      <c r="W14" s="54">
-        <f t="shared" si="3"/>
-        <v>9.9999999999998384</v>
-      </c>
-      <c r="X14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075688707</v>
-      </c>
-      <c r="Y14" s="54">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Z14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075689077</v>
-      </c>
-      <c r="AA14" s="54">
-        <f t="shared" si="3"/>
-        <v>9.9999999999999911</v>
-      </c>
-      <c r="AB14" s="54">
-        <f t="shared" si="3"/>
-        <v>5.0964007319853621E-13</v>
-      </c>
-      <c r="AC14" s="54">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999996021</v>
-      </c>
-      <c r="AD14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.320508075688853</v>
-      </c>
-      <c r="AE14" s="54">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="AF14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.320508075688647</v>
-      </c>
-      <c r="AG14" s="54">
-        <f t="shared" si="3"/>
-        <v>-10.000000000000229</v>
-      </c>
-      <c r="AH14" s="54">
-        <f t="shared" si="3"/>
-        <v>-7.8406031667199727E-13</v>
-      </c>
-      <c r="AI14" s="54">
-        <f t="shared" si="3"/>
-        <v>9.9999999999998561</v>
-      </c>
-      <c r="AJ14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075688998</v>
-      </c>
-      <c r="AK14" s="54">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AL14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075689066</v>
-      </c>
-      <c r="AM14" s="54">
-        <f t="shared" si="3"/>
-        <v>10.000000000000959</v>
-      </c>
-      <c r="AN14" s="54">
-        <f t="shared" si="3"/>
-        <v>1.6269147487535385E-12</v>
-      </c>
-      <c r="AO14" s="54">
-        <f t="shared" si="3"/>
-        <v>-10.00000000000011</v>
-      </c>
-      <c r="AP14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.320508075688576</v>
-      </c>
-      <c r="AQ14" s="54">
-        <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="AR14" s="54">
-        <f t="shared" si="3"/>
-        <v>-17.32050807568892</v>
-      </c>
-      <c r="AS14" s="54">
-        <f t="shared" si="3"/>
-        <v>-10.000000000000703</v>
-      </c>
-      <c r="AT14" s="54">
-        <f t="shared" si="3"/>
-        <v>9.4083595081340121E-13</v>
-      </c>
-      <c r="AU14" s="54">
-        <f t="shared" si="3"/>
-        <v>10.000000000000364</v>
-      </c>
-      <c r="AV14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075688721</v>
-      </c>
-      <c r="AW14" s="54">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AX14" s="54">
-        <f t="shared" si="3"/>
-        <v>17.320508075688203</v>
-      </c>
-      <c r="AY14" s="54">
-        <f t="shared" si="3"/>
-        <v>9.9999999999994653</v>
-      </c>
-    </row>
-    <row r="15" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42">
-        <v>50</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="F15" s="73">
-        <f t="shared" ref="F15" si="4">PI()*E15/180</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="J15" s="97" t="str">
-        <f>_xlfn.CONCAT("I = ",IF(C15&lt;&gt;1,_xlfn.CONCAT(ROUND(C15,2)," *"),"")," sin(",IF(D15&lt;&gt;1,_xlfn.CONCAT(ROUND(D15,2),"*"),""),"x ",IF(F15&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F15,2),""),""),") = ")</f>
-        <v xml:space="preserve">I =  sin(50*x ) = </v>
-      </c>
-      <c r="K15" s="98">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*K13 + $F$15),"")</f>
-        <v>0.86602540378444159</v>
-      </c>
-      <c r="L15" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="55">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*M13 + $F$15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="55">
-        <f t="shared" ref="N15:AY15" si="5">IF($L$15=$AI$7,$C$15*SIN($D$15*N13 + $F$15),0)</f>
-        <v>0.49999999999999906</v>
-      </c>
-      <c r="O15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.8660254037844376</v>
-      </c>
-      <c r="P15" s="55">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.86602540378444082</v>
-      </c>
-      <c r="R15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.50000000000000167</v>
-      </c>
-      <c r="S15" s="55">
-        <f t="shared" si="5"/>
-        <v>-4.898425415289509E-16</v>
-      </c>
-      <c r="T15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.50000000000000255</v>
-      </c>
-      <c r="U15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378443427</v>
-      </c>
-      <c r="V15" s="55">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="W15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378444059</v>
-      </c>
-      <c r="X15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.50000000000000122</v>
-      </c>
-      <c r="Y15" s="55">
-        <f t="shared" si="5"/>
-        <v>9.7968508305790181E-16</v>
-      </c>
-      <c r="Z15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.49999999999997835</v>
-      </c>
-      <c r="AA15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.86602540378444159</v>
-      </c>
-      <c r="AB15" s="55">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AC15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.86602540378444748</v>
-      </c>
-      <c r="AD15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.49999999999998856</v>
-      </c>
-      <c r="AE15" s="55">
-        <f t="shared" si="5"/>
-        <v>1.2741327090615151E-14</v>
-      </c>
-      <c r="AF15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.50000000000001565</v>
-      </c>
-      <c r="AG15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378443471</v>
-      </c>
-      <c r="AH15" s="55">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AI15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378444015</v>
-      </c>
-      <c r="AJ15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.4999999999999758</v>
-      </c>
-      <c r="AK15" s="55">
-        <f t="shared" si="5"/>
-        <v>1.9593701661158036E-15</v>
-      </c>
-      <c r="AL15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.49999999999997918</v>
-      </c>
-      <c r="AM15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.86602540378441362</v>
-      </c>
-      <c r="AN15" s="55">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AO15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443271</v>
-      </c>
-      <c r="AP15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.50000000000001232</v>
-      </c>
-      <c r="AQ15" s="55">
-        <f t="shared" si="5"/>
-        <v>4.0183351437961257E-14</v>
-      </c>
-      <c r="AR15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.49999999999999195</v>
-      </c>
-      <c r="AS15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378442106</v>
-      </c>
-      <c r="AT15" s="55">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AU15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.86602540378442538</v>
-      </c>
-      <c r="AV15" s="55">
-        <f t="shared" si="5"/>
-        <v>-0.49999999999999956</v>
-      </c>
-      <c r="AW15" s="55">
-        <f t="shared" si="5"/>
-        <v>-2.5482654181230302E-14</v>
-      </c>
-      <c r="AX15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.50000000000005385</v>
-      </c>
-      <c r="AY15" s="55">
-        <f t="shared" si="5"/>
-        <v>0.8660254037844568</v>
-      </c>
-    </row>
-    <row r="16" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J16" s="41"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-    </row>
-    <row r="17" spans="10:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J17" s="41"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-    </row>
-    <row r="18" spans="10:51" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="J18" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="101">
-        <f>IF($L$18=$AI$7,K14*K15,"")</f>
-        <v>8.6602540378444086</v>
-      </c>
-      <c r="L18" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="55">
-        <f>IF($L$18=$AI$7,M14*M15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="55">
-        <f t="shared" ref="N18:AY18" si="6">IF($L$18=$AI$7,N14*N15,0)</f>
-        <v>8.6602540378443766</v>
-      </c>
-      <c r="O18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378443837</v>
-      </c>
-      <c r="P18" s="55">
-        <f t="shared" si="6"/>
-        <v>-3.9200413748385898E-14</v>
-      </c>
-      <c r="Q18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378443678</v>
-      </c>
-      <c r="R18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378443784</v>
-      </c>
-      <c r="S18" s="55">
-        <f t="shared" si="6"/>
-        <v>9.7968508305790181E-15</v>
-      </c>
-      <c r="T18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378444424</v>
-      </c>
-      <c r="U18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378445561</v>
-      </c>
-      <c r="V18" s="55">
-        <f t="shared" si="6"/>
-        <v>2.3521982972507516E-13</v>
-      </c>
-      <c r="W18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378442665</v>
-      </c>
-      <c r="X18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378443749</v>
-      </c>
-      <c r="Y18" s="55">
-        <f t="shared" si="6"/>
-        <v>1.9593701661158036E-14</v>
-      </c>
-      <c r="Z18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378441635</v>
-      </c>
-      <c r="AA18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378444086</v>
-      </c>
-      <c r="AB18" s="55">
-        <f t="shared" si="6"/>
-        <v>5.0964007319853621E-13</v>
-      </c>
-      <c r="AC18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378441297</v>
-      </c>
-      <c r="AD18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378442274</v>
-      </c>
-      <c r="AE18" s="55">
-        <f t="shared" si="6"/>
-        <v>-2.5482654181230302E-13</v>
-      </c>
-      <c r="AF18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378445951</v>
-      </c>
-      <c r="AG18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378445454</v>
-      </c>
-      <c r="AH18" s="55">
-        <f t="shared" si="6"/>
-        <v>7.8406031667199727E-13</v>
-      </c>
-      <c r="AI18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378442772</v>
-      </c>
-      <c r="AJ18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.66025403784408</v>
-      </c>
-      <c r="AK18" s="55">
-        <f t="shared" si="6"/>
-        <v>3.9187403322316072E-14</v>
-      </c>
-      <c r="AL18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378441724</v>
-      </c>
-      <c r="AM18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378449664</v>
-      </c>
-      <c r="AN18" s="55">
-        <f t="shared" si="6"/>
-        <v>1.6269147487535385E-12</v>
-      </c>
-      <c r="AO18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378444228</v>
-      </c>
-      <c r="AP18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.660254037844501</v>
-      </c>
-      <c r="AQ18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.0366702875922513E-13</v>
-      </c>
-      <c r="AR18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378443216</v>
-      </c>
-      <c r="AS18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.660254037844819</v>
-      </c>
-      <c r="AT18" s="55">
-        <f t="shared" si="6"/>
-        <v>-9.4083595081340121E-13</v>
-      </c>
-      <c r="AU18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378445685</v>
-      </c>
-      <c r="AV18" s="55">
-        <f t="shared" si="6"/>
-        <v>-8.6602540378443535</v>
-      </c>
-      <c r="AW18" s="55">
-        <f t="shared" si="6"/>
-        <v>-5.0965308362460604E-13</v>
-      </c>
-      <c r="AX18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378450339</v>
-      </c>
-      <c r="AY18" s="55">
-        <f t="shared" si="6"/>
-        <v>8.6602540378441049</v>
-      </c>
-    </row>
-    <row r="19" spans="10:51" x14ac:dyDescent="0.35">
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:L13"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14:L15 L18 AP7" xr:uid="{C8E29193-96AE-404C-87B8-B84194F32E1C}">
-      <formula1>$AI$7:$AI$8</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1841BF1A-9A03-4CA3-9AB4-14BC2465827D}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.6328125" customWidth="1"/>
-    <col min="17" max="17" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="16" max="16" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="C2" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="I2" s="41" t="s">
+    <row r="1" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.6">
+      <c r="C2" s="44" t="str">
+        <f ca="1">_xlfn.CONCAT("Geburtstagsliste für ",YEAR(I2))</f>
+        <v>Geburtstagsliste für 2025</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="111">
+        <f ca="1">NOW()</f>
+        <v>45758.501470833333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.6">
+      <c r="C3" s="44"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="111"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="112" t="str">
+        <f ca="1">_xlfn.CONCAT("Geburtstag im ",YEAR(I2))</f>
+        <v>Geburtstag im 2025</v>
+      </c>
+      <c r="D4" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="111">
-        <f ca="1">NOW()</f>
-        <v>45754.760851620369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="E4" s="158" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>200</v>
       </c>
       <c r="F4" s="112" t="s">
         <v>199</v>
       </c>
       <c r="G4" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="I4" s="112" t="s">
         <v>202</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>203</v>
       </c>
       <c r="J4" s="112" t="s">
         <v>204</v>
       </c>
       <c r="K4" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="M4" s="112" t="s">
         <v>205</v>
-      </c>
-      <c r="M4" s="112" t="s">
-        <v>208</v>
       </c>
       <c r="N4" s="112" t="s">
         <v>207</v>
       </c>
       <c r="O4" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="P4" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="112" t="s">
-        <v>211</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="str">
-        <f t="shared" ref="A5:A34" si="0">_xlfn.CONCAT(TEXT(MONTH(G5),"00"),"_",TEXT(DAY(G5),"00"))</f>
+        <f>_xlfn.CONCAT(TEXT(MONTH(F5),"00"),"_",TEXT(DAY(F5),"00"))</f>
         <v>01_01</v>
       </c>
       <c r="B5" s="113" t="str">
-        <f t="shared" ref="B5:B34" si="1">_xlfn.CONCAT(K5,".",M5)</f>
+        <f>_xlfn.CONCAT(TEXT(DAY(F5),"00"),".",TEXT(F5,"MMMM"))</f>
         <v>01.Januar</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" ref="C5:C34" si="2">N5</f>
+      <c r="C5" s="157">
+        <f ca="1">DATE(YEAR($I$2),MONTH(F5),DAY(F5))</f>
+        <v>45658</v>
+      </c>
+      <c r="D5" s="114">
+        <f ca="1">YEAR($I$2) - YEAR(F5) - IF(O5&gt;$I$2,1,0)</f>
+        <v>62</v>
+      </c>
+      <c r="E5" s="115">
+        <f ca="1">YEAR($I$2) - YEAR(F5)</f>
+        <v>62</v>
+      </c>
+      <c r="F5" s="116">
+        <v>23012</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="96" t="str">
+        <f>TEXT(DAY(F5),"00")</f>
+        <v>01</v>
+      </c>
+      <c r="K5" s="96" t="str">
+        <f t="shared" ref="K5:K34" si="0">TEXT(MONTH(F5),"00")</f>
+        <v>01</v>
+      </c>
+      <c r="L5" s="96" t="str">
+        <f>TEXT(F5,"MMMM")</f>
+        <v>Januar</v>
+      </c>
+      <c r="M5" s="96" t="str">
+        <f t="shared" ref="M5:M34" si="1">TEXT(YEAR(F5),"0000")</f>
         <v>1963</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f t="shared" ref="D5:D34" si="3">O5</f>
+      <c r="N5" s="96" t="str">
+        <f t="shared" ref="N5:N34" si="2">TEXT(F5,"TTTT")</f>
         <v>Dienstag</v>
       </c>
-      <c r="E5" s="114">
-        <f ca="1">YEAR($J$2) - YEAR(G5) - IF(P5&gt;$J$2,1,0)</f>
-        <v>62</v>
-      </c>
-      <c r="F5" s="115">
-        <f ca="1">YEAR($J$2) - YEAR(G5)</f>
-        <v>62</v>
-      </c>
-      <c r="G5" s="116">
-        <v>23012</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="O5" s="117">
+        <f t="shared" ref="O5:O34" ca="1" si="3">DATE(YEAR($I$2),K5,J5)</f>
+        <v>45658</v>
+      </c>
+      <c r="P5" s="96" t="str">
+        <f t="shared" ref="P5:P34" ca="1" si="4">IF($I$2&lt;O5,"Noch kein Geburtstag gehabt","Schon Geburtstag gehabt")</f>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="str">
+        <f t="shared" ref="A6:A34" si="5">_xlfn.CONCAT(TEXT(MONTH(F6),"00"),"_",TEXT(DAY(F6),"00"))</f>
+        <v>01_02</v>
+      </c>
+      <c r="B6" s="113" t="str">
+        <f t="shared" ref="B6:B34" si="6">_xlfn.CONCAT(TEXT(DAY(F6),"00"),".",TEXT(F6,"MMMM"))</f>
+        <v>02.Januar</v>
+      </c>
+      <c r="C6" s="157">
+        <f t="shared" ref="C6:C34" ca="1" si="7">DATE(YEAR($I$2),MONTH(F6),DAY(F6))</f>
+        <v>45659</v>
+      </c>
+      <c r="D6" s="114">
+        <f t="shared" ref="D6:D34" ca="1" si="8">YEAR($I$2) - YEAR(F6) - IF(O6&gt;$I$2,1,0)</f>
+        <v>38</v>
+      </c>
+      <c r="E6" s="115">
+        <f t="shared" ref="E6:E34" ca="1" si="9">YEAR($I$2) - YEAR(F6)</f>
+        <v>38</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="96" t="str">
+        <f t="shared" ref="J5:J34" si="10">TEXT(DAY(F6),"00")</f>
+        <v>02</v>
+      </c>
+      <c r="K6" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L6" s="96" t="str">
+        <f>TEXT(F6,"MMMM")</f>
+        <v>Januar</v>
+      </c>
+      <c r="M6" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1987</v>
+      </c>
+      <c r="N6" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O6" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45659</v>
+      </c>
+      <c r="P6" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_02</v>
+      </c>
+      <c r="B7" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>02.Januar</v>
+      </c>
+      <c r="C7" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45659</v>
+      </c>
+      <c r="D7" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>02</v>
+      </c>
+      <c r="K7" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L7" s="96" t="str">
+        <f t="shared" ref="L5:L34" si="11">TEXT(F7,"MMMM")</f>
+        <v>Januar</v>
+      </c>
+      <c r="M7" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="N7" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Donnerstag</v>
+      </c>
+      <c r="O7" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45659</v>
+      </c>
+      <c r="P7" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_06</v>
+      </c>
+      <c r="B8" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>06.Januar</v>
+      </c>
+      <c r="C8" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45663</v>
+      </c>
+      <c r="D8" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="E8" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="F8" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>06</v>
+      </c>
+      <c r="K8" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L8" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M8" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1988</v>
+      </c>
+      <c r="N8" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Mittwoch</v>
+      </c>
+      <c r="O8" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45663</v>
+      </c>
+      <c r="P8" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_07</v>
+      </c>
+      <c r="B9" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>07.Januar</v>
+      </c>
+      <c r="C9" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45664</v>
+      </c>
+      <c r="D9" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="E9" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="H9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>07</v>
+      </c>
+      <c r="K9" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L9" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M9" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1976</v>
+      </c>
+      <c r="N9" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Mittwoch</v>
+      </c>
+      <c r="O9" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45664</v>
+      </c>
+      <c r="P9" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_09</v>
+      </c>
+      <c r="B10" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>09.Januar</v>
+      </c>
+      <c r="C10" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45666</v>
+      </c>
+      <c r="D10" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="E10" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="K10" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L10" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M10" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1965</v>
+      </c>
+      <c r="N10" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Samstag</v>
+      </c>
+      <c r="O10" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45666</v>
+      </c>
+      <c r="P10" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_09</v>
+      </c>
+      <c r="B11" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>09.Januar</v>
+      </c>
+      <c r="C11" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45666</v>
+      </c>
+      <c r="D11" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="E11" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="K11" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L11" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M11" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1958</v>
+      </c>
+      <c r="N11" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Donnerstag</v>
+      </c>
+      <c r="O11" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45666</v>
+      </c>
+      <c r="P11" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_10</v>
+      </c>
+      <c r="B12" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>10.Januar</v>
+      </c>
+      <c r="C12" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45667</v>
+      </c>
+      <c r="D12" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E12" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L12" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M12" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="N12" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O12" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45667</v>
+      </c>
+      <c r="P12" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_11</v>
+      </c>
+      <c r="B13" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>11.Januar</v>
+      </c>
+      <c r="C13" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45668</v>
+      </c>
+      <c r="D13" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L13" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M13" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1964</v>
+      </c>
+      <c r="N13" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Samstag</v>
+      </c>
+      <c r="O13" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45668</v>
+      </c>
+      <c r="P13" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_11</v>
+      </c>
+      <c r="B14" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>11.Januar</v>
+      </c>
+      <c r="C14" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45668</v>
+      </c>
+      <c r="D14" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="E14" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="F14" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="K14" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L14" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M14" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1983</v>
+      </c>
+      <c r="N14" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Dienstag</v>
+      </c>
+      <c r="O14" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45668</v>
+      </c>
+      <c r="P14" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_14</v>
+      </c>
+      <c r="B15" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>14.Januar</v>
+      </c>
+      <c r="C15" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45671</v>
+      </c>
+      <c r="D15" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="E15" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="F15" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="K15" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L15" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M15" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1960</v>
+      </c>
+      <c r="N15" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Donnerstag</v>
+      </c>
+      <c r="O15" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45671</v>
+      </c>
+      <c r="P15" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>01_15</v>
+      </c>
+      <c r="B16" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>15.Januar</v>
+      </c>
+      <c r="C16" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45672</v>
+      </c>
+      <c r="D16" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="E16" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K16" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="L16" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Januar</v>
+      </c>
+      <c r="M16" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+      <c r="N16" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Dienstag</v>
+      </c>
+      <c r="O16" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45672</v>
+      </c>
+      <c r="P16" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>02_09</v>
+      </c>
+      <c r="B17" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>09.Februar</v>
+      </c>
+      <c r="C17" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45697</v>
+      </c>
+      <c r="D17" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="F17" s="116">
+        <v>16477</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>09</v>
+      </c>
+      <c r="K17" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="L17" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Februar</v>
+      </c>
+      <c r="M17" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1945</v>
+      </c>
+      <c r="N17" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O17" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45697</v>
+      </c>
+      <c r="P17" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>02_14</v>
+      </c>
+      <c r="B18" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>14.Februar</v>
+      </c>
+      <c r="C18" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45702</v>
+      </c>
+      <c r="D18" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="F18" s="116">
+        <v>26709</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="K18" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="L18" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Februar</v>
+      </c>
+      <c r="M18" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+      <c r="N18" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Mittwoch</v>
+      </c>
+      <c r="O18" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45702</v>
+      </c>
+      <c r="P18" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>03_02</v>
+      </c>
+      <c r="B19" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>02.März</v>
+      </c>
+      <c r="C19" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45718</v>
+      </c>
+      <c r="D19" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="E19" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="F19" s="116">
+        <v>21611</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>02</v>
+      </c>
+      <c r="K19" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="L19" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>März</v>
+      </c>
+      <c r="M19" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1959</v>
+      </c>
+      <c r="N19" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Montag</v>
+      </c>
+      <c r="O19" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45718</v>
+      </c>
+      <c r="P19" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>03_02</v>
+      </c>
+      <c r="B20" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>02.März</v>
+      </c>
+      <c r="C20" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45718</v>
+      </c>
+      <c r="D20" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E20" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="116">
+        <v>34395</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>02</v>
+      </c>
+      <c r="K20" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>03</v>
+      </c>
+      <c r="L20" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>März</v>
+      </c>
+      <c r="M20" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1994</v>
+      </c>
+      <c r="N20" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Mittwoch</v>
+      </c>
+      <c r="O20" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45718</v>
+      </c>
+      <c r="P20" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>04_10</v>
+      </c>
+      <c r="B21" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>10.April</v>
+      </c>
+      <c r="C21" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45757</v>
+      </c>
+      <c r="D21" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="116">
+        <v>36626</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K21" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="L21" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>April</v>
+      </c>
+      <c r="M21" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="N21" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Montag</v>
+      </c>
+      <c r="O21" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45757</v>
+      </c>
+      <c r="P21" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Schon Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>07_12</v>
+      </c>
+      <c r="B22" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>12.Juli</v>
+      </c>
+      <c r="C22" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45850</v>
+      </c>
+      <c r="D22" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E22" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="F22" s="116">
+        <v>27222</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="K22" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="L22" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Juli</v>
+      </c>
+      <c r="M22" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1974</v>
+      </c>
+      <c r="N22" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O22" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45850</v>
+      </c>
+      <c r="P22" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>08_05</v>
+      </c>
+      <c r="B23" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>05.August</v>
+      </c>
+      <c r="C23" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45874</v>
+      </c>
+      <c r="D23" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E23" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="F23" s="116">
+        <v>22133</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>05</v>
+      </c>
+      <c r="K23" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="L23" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>August</v>
+      </c>
+      <c r="M23" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1960</v>
+      </c>
+      <c r="N23" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O23" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45874</v>
+      </c>
+      <c r="P23" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>08_12</v>
+      </c>
+      <c r="B24" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>12.August</v>
+      </c>
+      <c r="C24" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45881</v>
+      </c>
+      <c r="D24" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="E24" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="F24" s="116">
+        <v>25427</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="K24" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="L24" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>August</v>
+      </c>
+      <c r="M24" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+      <c r="N24" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Dienstag</v>
+      </c>
+      <c r="O24" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45881</v>
+      </c>
+      <c r="P24" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>08_13</v>
+      </c>
+      <c r="B25" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>13.August</v>
+      </c>
+      <c r="C25" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45882</v>
+      </c>
+      <c r="D25" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="E25" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F25" s="116">
+        <v>15566</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="96" t="str">
-        <f t="shared" ref="K5:K34" si="4">TEXT(DAY(G5),"00")</f>
-        <v>01</v>
-      </c>
-      <c r="L5" s="96" t="str">
-        <f t="shared" ref="L5:L34" si="5">TEXT(MONTH(G5),"00")</f>
-        <v>01</v>
-      </c>
-      <c r="M5" s="96" t="str">
-        <f t="shared" ref="M5:M34" si="6">TEXT(G5,"MMMM")</f>
-        <v>Januar</v>
-      </c>
-      <c r="N5" s="96" t="str">
-        <f t="shared" ref="N5:N34" si="7">TEXT(YEAR(G5),"0000")</f>
-        <v>1963</v>
-      </c>
-      <c r="O5" s="96" t="str">
-        <f t="shared" ref="O5:O34" si="8">TEXT(G5,"TTTT")</f>
+      <c r="J25" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K25" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="L25" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>August</v>
+      </c>
+      <c r="M25" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1942</v>
+      </c>
+      <c r="N25" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Donnerstag</v>
+      </c>
+      <c r="O25" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45882</v>
+      </c>
+      <c r="P25" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>09_12</v>
+      </c>
+      <c r="B26" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>12.September</v>
+      </c>
+      <c r="C26" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45912</v>
+      </c>
+      <c r="D26" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="E26" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="F26" s="116">
+        <v>25458</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="K26" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="L26" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>September</v>
+      </c>
+      <c r="M26" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+      <c r="N26" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Freitag</v>
+      </c>
+      <c r="O26" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45912</v>
+      </c>
+      <c r="P26" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>09_16</v>
+      </c>
+      <c r="B27" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>16.September</v>
+      </c>
+      <c r="C27" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45916</v>
+      </c>
+      <c r="D27" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="E27" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="F27" s="116">
+        <v>22540</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K27" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>09</v>
+      </c>
+      <c r="L27" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>September</v>
+      </c>
+      <c r="M27" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1961</v>
+      </c>
+      <c r="N27" s="96" t="str">
+        <f>TEXT(F27,"TTTT")</f>
+        <v>Samstag</v>
+      </c>
+      <c r="O27" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45916</v>
+      </c>
+      <c r="P27" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>10_10</v>
+      </c>
+      <c r="B28" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>10.Oktober</v>
+      </c>
+      <c r="C28" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45940</v>
+      </c>
+      <c r="D28" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="E28" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F28" s="116">
+        <v>14894</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K28" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L28" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Oktober</v>
+      </c>
+      <c r="M28" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1940</v>
+      </c>
+      <c r="N28" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Donnerstag</v>
+      </c>
+      <c r="O28" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45940</v>
+      </c>
+      <c r="P28" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>10_12</v>
+      </c>
+      <c r="B29" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>12.Oktober</v>
+      </c>
+      <c r="C29" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45942</v>
+      </c>
+      <c r="D29" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="E29" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F29" s="116">
+        <v>15626</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="K29" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L29" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Oktober</v>
+      </c>
+      <c r="M29" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1942</v>
+      </c>
+      <c r="N29" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Montag</v>
+      </c>
+      <c r="O29" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45942</v>
+      </c>
+      <c r="P29" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>10_14</v>
+      </c>
+      <c r="B30" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>14.Oktober</v>
+      </c>
+      <c r="C30" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45944</v>
+      </c>
+      <c r="D30" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E30" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="F30" s="116">
+        <v>30969</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="K30" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L30" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Oktober</v>
+      </c>
+      <c r="M30" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+      <c r="N30" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Sonntag</v>
+      </c>
+      <c r="O30" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45944</v>
+      </c>
+      <c r="P30" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>10_15</v>
+      </c>
+      <c r="B31" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>15.Oktober</v>
+      </c>
+      <c r="C31" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45945</v>
+      </c>
+      <c r="D31" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="E31" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="F31" s="116">
+        <v>22569</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="K31" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L31" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Oktober</v>
+      </c>
+      <c r="M31" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1961</v>
+      </c>
+      <c r="N31" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Sonntag</v>
+      </c>
+      <c r="O31" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45945</v>
+      </c>
+      <c r="P31" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>11_10</v>
+      </c>
+      <c r="B32" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>10.November</v>
+      </c>
+      <c r="C32" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>45971</v>
+      </c>
+      <c r="D32" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="E32" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="F32" s="116">
+        <v>15290</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K32" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L32" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>November</v>
+      </c>
+      <c r="M32" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1941</v>
+      </c>
+      <c r="N32" s="96" t="str">
+        <f t="shared" si="2"/>
+        <v>Montag</v>
+      </c>
+      <c r="O32" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>45971</v>
+      </c>
+      <c r="P32" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>12_10</v>
+      </c>
+      <c r="B33" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>10.Dezember</v>
+      </c>
+      <c r="C33" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>46001</v>
+      </c>
+      <c r="D33" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="E33" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="F33" s="116">
+        <v>25182</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K33" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L33" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Dezember</v>
+      </c>
+      <c r="M33" s="96" t="str">
+        <f t="shared" si="1"/>
+        <v>1968</v>
+      </c>
+      <c r="N33" s="96" t="str">
+        <f t="shared" si="2"/>
         <v>Dienstag</v>
       </c>
-      <c r="P5" s="117">
-        <f t="shared" ref="P5:P34" ca="1" si="9">DATE(YEAR($J$2),L5,K5)</f>
-        <v>45658</v>
-      </c>
-      <c r="Q5" s="96" t="str">
-        <f t="shared" ref="Q5:Q34" ca="1" si="10">IF($J$2&lt;P5,"Noch kein Geburtstag gehabt","Schon Geburtstag gehabt")</f>
-        <v>Schon Geburtstag gehabt</v>
+      <c r="O33" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>46001</v>
+      </c>
+      <c r="P33" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>12_16</v>
+      </c>
+      <c r="B34" s="113" t="str">
+        <f t="shared" si="6"/>
+        <v>16.Dezember</v>
+      </c>
+      <c r="C34" s="157">
+        <f t="shared" ca="1" si="7"/>
+        <v>46007</v>
+      </c>
+      <c r="D34" s="114">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E34" s="115">
+        <f t="shared" ca="1" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="116">
+        <v>34684</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="96" t="str">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="K34" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>01_02</v>
-      </c>
-      <c r="B6" s="113" t="str">
+        <v>12</v>
+      </c>
+      <c r="L34" s="96" t="str">
+        <f t="shared" si="11"/>
+        <v>Dezember</v>
+      </c>
+      <c r="M34" s="96" t="str">
         <f t="shared" si="1"/>
-        <v>02.Januar</v>
-      </c>
-      <c r="C6" s="5" t="str">
+        <v>1994</v>
+      </c>
+      <c r="N34" s="96" t="str">
         <f t="shared" si="2"/>
-        <v>1987</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>Freitag</v>
       </c>
-      <c r="E6" s="114">
-        <f t="shared" ref="E6:E34" ca="1" si="11">YEAR($J$2) - YEAR(G6) - IF(P6&gt;$J$2,1,0)</f>
-        <v>38</v>
-      </c>
-      <c r="F6" s="115">
-        <f t="shared" ref="F6:F34" ca="1" si="12">YEAR($J$2) - YEAR(G6)</f>
-        <v>38</v>
-      </c>
-      <c r="G6" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="L6" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M6" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N6" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1987</v>
-      </c>
-      <c r="O6" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P6" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45659</v>
-      </c>
-      <c r="Q6" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
+      <c r="O34" s="117">
+        <f t="shared" ca="1" si="3"/>
+        <v>46007</v>
+      </c>
+      <c r="P34" s="96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Noch kein Geburtstag gehabt</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_02</v>
-      </c>
-      <c r="B7" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>02.Januar</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1992</v>
-      </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="E7" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>33</v>
-      </c>
-      <c r="F7" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="G7" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="L7" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M7" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N7" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1992</v>
-      </c>
-      <c r="O7" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="P7" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45659</v>
-      </c>
-      <c r="Q7" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_06</v>
-      </c>
-      <c r="B8" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>06.Januar</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1988</v>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="E8" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>37</v>
-      </c>
-      <c r="F8" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>37</v>
-      </c>
-      <c r="G8" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
-      </c>
-      <c r="L8" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M8" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N8" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1988</v>
-      </c>
-      <c r="O8" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="P8" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45663</v>
-      </c>
-      <c r="Q8" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_07</v>
-      </c>
-      <c r="B9" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>07.Januar</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1976</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="E9" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="F9" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>49</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
-      </c>
-      <c r="L9" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M9" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N9" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1976</v>
-      </c>
-      <c r="O9" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="P9" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45664</v>
-      </c>
-      <c r="Q9" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_09</v>
-      </c>
-      <c r="B10" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>09.Januar</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1965</v>
-      </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Samstag</v>
-      </c>
-      <c r="E10" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
-      </c>
-      <c r="L10" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M10" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N10" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1965</v>
-      </c>
-      <c r="O10" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Samstag</v>
-      </c>
-      <c r="P10" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45666</v>
-      </c>
-      <c r="Q10" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_09</v>
-      </c>
-      <c r="B11" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>09.Januar</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1958</v>
-      </c>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="E11" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>67</v>
-      </c>
-      <c r="F11" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>67</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
-      </c>
-      <c r="L11" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M11" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N11" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1958</v>
-      </c>
-      <c r="O11" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="P11" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45666</v>
-      </c>
-      <c r="Q11" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_10</v>
-      </c>
-      <c r="B12" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>10.Januar</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1997</v>
-      </c>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E12" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="F12" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="G12" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L12" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M12" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N12" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1997</v>
-      </c>
-      <c r="O12" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P12" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45667</v>
-      </c>
-      <c r="Q12" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_11</v>
-      </c>
-      <c r="B13" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>11.Januar</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1964</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Samstag</v>
-      </c>
-      <c r="E13" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>61</v>
-      </c>
-      <c r="F13" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>61</v>
-      </c>
-      <c r="G13" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L13" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M13" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N13" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1964</v>
-      </c>
-      <c r="O13" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Samstag</v>
-      </c>
-      <c r="P13" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45668</v>
-      </c>
-      <c r="Q13" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_11</v>
-      </c>
-      <c r="B14" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>11.Januar</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1983</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E14" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>42</v>
-      </c>
-      <c r="F14" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>42</v>
-      </c>
-      <c r="G14" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="L14" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M14" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N14" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1983</v>
-      </c>
-      <c r="O14" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="P14" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45668</v>
-      </c>
-      <c r="Q14" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_14</v>
-      </c>
-      <c r="B15" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>14.Januar</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1960</v>
-      </c>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="E15" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>65</v>
-      </c>
-      <c r="F15" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="G15" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L15" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M15" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N15" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1960</v>
-      </c>
-      <c r="O15" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="P15" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45671</v>
-      </c>
-      <c r="Q15" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_15</v>
-      </c>
-      <c r="B16" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>15.Januar</v>
-      </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1980</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E16" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="F16" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>45</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L16" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>01</v>
-      </c>
-      <c r="M16" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Januar</v>
-      </c>
-      <c r="N16" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1980</v>
-      </c>
-      <c r="O16" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="P16" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45672</v>
-      </c>
-      <c r="Q16" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>02_09</v>
-      </c>
-      <c r="B17" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>09.Februar</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E17" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="F17" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="G17" s="116">
-        <v>16477</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
-      </c>
-      <c r="L17" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>02</v>
-      </c>
-      <c r="M17" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Februar</v>
-      </c>
-      <c r="N17" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1945</v>
-      </c>
-      <c r="O17" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P17" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45697</v>
-      </c>
-      <c r="Q17" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>02_14</v>
-      </c>
-      <c r="B18" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>14.Februar</v>
-      </c>
-      <c r="C18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1973</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="E18" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>52</v>
-      </c>
-      <c r="F18" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>52</v>
-      </c>
-      <c r="G18" s="116">
-        <v>26709</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L18" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>02</v>
-      </c>
-      <c r="M18" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Februar</v>
-      </c>
-      <c r="N18" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1973</v>
-      </c>
-      <c r="O18" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="P18" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45702</v>
-      </c>
-      <c r="Q18" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>03_02</v>
-      </c>
-      <c r="B19" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>02.März</v>
-      </c>
-      <c r="C19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1959</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Montag</v>
-      </c>
-      <c r="E19" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>66</v>
-      </c>
-      <c r="F19" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="G19" s="116">
-        <v>21611</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="L19" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>03</v>
-      </c>
-      <c r="M19" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>März</v>
-      </c>
-      <c r="N19" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1959</v>
-      </c>
-      <c r="O19" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Montag</v>
-      </c>
-      <c r="P19" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45718</v>
-      </c>
-      <c r="Q19" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>03_02</v>
-      </c>
-      <c r="B20" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>02.März</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1994</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="E20" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="F20" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="G20" s="116">
-        <v>34395</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
-      </c>
-      <c r="L20" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>03</v>
-      </c>
-      <c r="M20" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>März</v>
-      </c>
-      <c r="N20" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1994</v>
-      </c>
-      <c r="O20" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Mittwoch</v>
-      </c>
-      <c r="P20" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45718</v>
-      </c>
-      <c r="Q20" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Schon Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>04_10</v>
-      </c>
-      <c r="B21" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>10.April</v>
-      </c>
-      <c r="C21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Montag</v>
-      </c>
-      <c r="E21" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="F21" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="G21" s="116">
-        <v>36626</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L21" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>04</v>
-      </c>
-      <c r="M21" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>April</v>
-      </c>
-      <c r="N21" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>2000</v>
-      </c>
-      <c r="O21" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Montag</v>
-      </c>
-      <c r="P21" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45757</v>
-      </c>
-      <c r="Q21" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>07_12</v>
-      </c>
-      <c r="B22" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>12.Juli</v>
-      </c>
-      <c r="C22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1974</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E22" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="F22" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>51</v>
-      </c>
-      <c r="G22" s="116">
-        <v>27222</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L22" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>07</v>
-      </c>
-      <c r="M22" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Juli</v>
-      </c>
-      <c r="N22" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1974</v>
-      </c>
-      <c r="O22" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P22" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45850</v>
-      </c>
-      <c r="Q22" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>08_05</v>
-      </c>
-      <c r="B23" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>05.August</v>
-      </c>
-      <c r="C23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1960</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E23" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="F23" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="G23" s="116">
-        <v>22133</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K23" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
-      </c>
-      <c r="L23" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>08</v>
-      </c>
-      <c r="M23" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>August</v>
-      </c>
-      <c r="N23" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1960</v>
-      </c>
-      <c r="O23" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P23" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45874</v>
-      </c>
-      <c r="Q23" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>08_12</v>
-      </c>
-      <c r="B24" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>12.August</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1969</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E24" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="F24" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="G24" s="116">
-        <v>25427</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L24" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>08</v>
-      </c>
-      <c r="M24" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>August</v>
-      </c>
-      <c r="N24" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1969</v>
-      </c>
-      <c r="O24" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="P24" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45881</v>
-      </c>
-      <c r="Q24" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>08_13</v>
-      </c>
-      <c r="B25" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>13.August</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1942</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="E25" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="F25" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="G25" s="116">
-        <v>15566</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="L25" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>08</v>
-      </c>
-      <c r="M25" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>August</v>
-      </c>
-      <c r="N25" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1942</v>
-      </c>
-      <c r="O25" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="P25" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45882</v>
-      </c>
-      <c r="Q25" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>09_12</v>
-      </c>
-      <c r="B26" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>12.September</v>
-      </c>
-      <c r="C26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1969</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E26" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="F26" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="G26" s="116">
-        <v>25458</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L26" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-      <c r="M26" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>September</v>
-      </c>
-      <c r="N26" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1969</v>
-      </c>
-      <c r="O26" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P26" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45912</v>
-      </c>
-      <c r="Q26" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>09_16</v>
-      </c>
-      <c r="B27" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>16.September</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1961</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Samstag</v>
-      </c>
-      <c r="E27" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="F27" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="G27" s="116">
-        <v>22540</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="L27" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>09</v>
-      </c>
-      <c r="M27" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>September</v>
-      </c>
-      <c r="N27" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1961</v>
-      </c>
-      <c r="O27" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Samstag</v>
-      </c>
-      <c r="P27" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45916</v>
-      </c>
-      <c r="Q27" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10_10</v>
-      </c>
-      <c r="B28" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>10.Oktober</v>
-      </c>
-      <c r="C28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1940</v>
-      </c>
-      <c r="D28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="E28" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="F28" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="G28" s="116">
-        <v>14894</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L28" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M28" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Oktober</v>
-      </c>
-      <c r="N28" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1940</v>
-      </c>
-      <c r="O28" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Donnerstag</v>
-      </c>
-      <c r="P28" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45940</v>
-      </c>
-      <c r="Q28" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10_12</v>
-      </c>
-      <c r="B29" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>12.Oktober</v>
-      </c>
-      <c r="C29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1942</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Montag</v>
-      </c>
-      <c r="E29" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="F29" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="G29" s="116">
-        <v>15626</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="L29" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M29" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Oktober</v>
-      </c>
-      <c r="N29" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1942</v>
-      </c>
-      <c r="O29" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Montag</v>
-      </c>
-      <c r="P29" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45942</v>
-      </c>
-      <c r="Q29" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10_14</v>
-      </c>
-      <c r="B30" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>14.Oktober</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1984</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Sonntag</v>
-      </c>
-      <c r="E30" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="F30" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>41</v>
-      </c>
-      <c r="G30" s="116">
-        <v>30969</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L30" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M30" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Oktober</v>
-      </c>
-      <c r="N30" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1984</v>
-      </c>
-      <c r="O30" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Sonntag</v>
-      </c>
-      <c r="P30" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45944</v>
-      </c>
-      <c r="Q30" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10_15</v>
-      </c>
-      <c r="B31" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>15.Oktober</v>
-      </c>
-      <c r="C31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1961</v>
-      </c>
-      <c r="D31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Sonntag</v>
-      </c>
-      <c r="E31" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="F31" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="G31" s="116">
-        <v>22569</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="L31" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M31" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Oktober</v>
-      </c>
-      <c r="N31" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1961</v>
-      </c>
-      <c r="O31" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Sonntag</v>
-      </c>
-      <c r="P31" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45945</v>
-      </c>
-      <c r="Q31" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>11_10</v>
-      </c>
-      <c r="B32" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>10.November</v>
-      </c>
-      <c r="C32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1941</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Montag</v>
-      </c>
-      <c r="E32" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="F32" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="G32" s="116">
-        <v>15290</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L32" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="M32" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>November</v>
-      </c>
-      <c r="N32" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1941</v>
-      </c>
-      <c r="O32" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Montag</v>
-      </c>
-      <c r="P32" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>45971</v>
-      </c>
-      <c r="Q32" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>12_10</v>
-      </c>
-      <c r="B33" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>10.Dezember</v>
-      </c>
-      <c r="C33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1968</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="E33" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>56</v>
-      </c>
-      <c r="F33" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="G33" s="116">
-        <v>25182</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L33" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="M33" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Dezember</v>
-      </c>
-      <c r="N33" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1968</v>
-      </c>
-      <c r="O33" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Dienstag</v>
-      </c>
-      <c r="P33" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>46001</v>
-      </c>
-      <c r="Q33" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>12_16</v>
-      </c>
-      <c r="B34" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v>16.Dezember</v>
-      </c>
-      <c r="C34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>1994</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Freitag</v>
-      </c>
-      <c r="E34" s="114">
-        <f t="shared" ca="1" si="11"/>
-        <v>30</v>
-      </c>
-      <c r="F34" s="115">
-        <f t="shared" ca="1" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="G34" s="116">
-        <v>34684</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="96" t="str">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="L34" s="96" t="str">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="M34" s="96" t="str">
-        <f t="shared" si="6"/>
-        <v>Dezember</v>
-      </c>
-      <c r="N34" s="96" t="str">
-        <f t="shared" si="7"/>
-        <v>1994</v>
-      </c>
-      <c r="O34" s="96" t="str">
-        <f t="shared" si="8"/>
-        <v>Freitag</v>
-      </c>
-      <c r="P34" s="117">
-        <f t="shared" ca="1" si="9"/>
-        <v>46007</v>
-      </c>
-      <c r="Q34" s="96" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Noch kein Geburtstag gehabt</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A4:Q4" xr:uid="{1841BF1A-9A03-4CA3-9AB4-14BC2465827D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q35">
+  <autoFilter ref="A4:P4" xr:uid="{1841BF1A-9A03-4CA3-9AB4-14BC2465827D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P35">
       <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:P34">
     <sortCondition ref="A5:A34"/>
   </sortState>
   <conditionalFormatting sqref="B5:B34">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(Q5="Noch kein Geburtstag gehabt",TRUE,FALSE)</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(P5="Noch kein Geburtstag gehabt",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -16777,975 +15379,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A696252B-2021-43AA-A0DF-2A1C66561B69}">
-  <dimension ref="A1:Q96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.6328125" customWidth="1"/>
-    <col min="17" max="17" width="26.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="C2" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="I2" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="111">
-        <v>45754.687945254627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" s="112" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" s="112" t="s">
-        <v>208</v>
-      </c>
-      <c r="N4" s="112" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4" s="112" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116">
-        <v>23012</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="96"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="96"/>
-    </row>
-    <row r="7" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="96"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="96"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="96"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="96"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="96"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="96"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="96"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="96"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="96"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116">
-        <v>16477</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="96"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116">
-        <v>26709</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="96"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116">
-        <v>21611</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="96"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116">
-        <v>34395</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="96"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116">
-        <v>36626</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="96"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116">
-        <v>27222</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="96"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116">
-        <v>22133</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="96"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116">
-        <v>25427</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="96"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116">
-        <v>15566</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="96"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116">
-        <v>25458</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="96"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116">
-        <v>22540</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="96"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116">
-        <v>14894</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="96"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116">
-        <v>15626</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="96"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116">
-        <v>30969</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="96"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116">
-        <v>22569</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="96"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116">
-        <v>15290</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="96"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116">
-        <v>25182</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="96"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116">
-        <v>34684</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="96"/>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <autoFilter ref="A4:Q4" xr:uid="{1841BF1A-9A03-4CA3-9AB4-14BC2465827D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q35">
-      <sortCondition ref="A4"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B5:B34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(Q5="Noch kein Geburtstag gehabt",TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB22FC2-F1DD-4976-B11D-F41AF79BE2D1}">
   <dimension ref="B1:C5"/>
   <sheetViews>
@@ -17781,7 +15414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C57830-AC00-4F43-A73A-16FD420D323A}">
   <dimension ref="B1:K45"/>
   <sheetViews>
@@ -18429,7 +16062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96115A17-1A1D-465A-AB11-E83075F9A2A8}">
   <dimension ref="B2:AO45"/>
   <sheetViews>
@@ -19147,7 +16780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
   <dimension ref="B2:AA11"/>
   <sheetViews>
@@ -19637,7 +17270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -19688,61 +17321,61 @@
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="134" t="str">
+      <c r="C6" s="137" t="str">
         <f>$O$8</f>
         <v>Anfangs-Geschwindigkeit</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="138" t="str">
+      <c r="D6" s="138"/>
+      <c r="E6" s="141" t="str">
         <f>$O$9</f>
         <v>Geschwindigkeit</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="138" t="str">
+      <c r="F6" s="138"/>
+      <c r="G6" s="141" t="str">
         <f>$O$10</f>
         <v>Strecke</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="138" t="str">
+      <c r="H6" s="138"/>
+      <c r="I6" s="141" t="str">
         <f>$O$11</f>
         <v>Zeit</v>
       </c>
-      <c r="J6" s="135"/>
-      <c r="K6" s="138" t="str">
+      <c r="J6" s="138"/>
+      <c r="K6" s="141" t="str">
         <f>$O$12</f>
         <v>Beschleunigung</v>
       </c>
-      <c r="L6" s="139"/>
+      <c r="L6" s="142"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="136" t="str">
+      <c r="C7" s="139" t="str">
         <f>$P$8</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="140" t="str">
+      <c r="D7" s="140"/>
+      <c r="E7" s="143" t="str">
         <f>$P$9</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="140" t="str">
+      <c r="F7" s="140"/>
+      <c r="G7" s="143" t="str">
         <f>$P$10</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="140" t="str">
+      <c r="H7" s="140"/>
+      <c r="I7" s="143" t="str">
         <f>$P$11</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="140" t="str">
+      <c r="J7" s="140"/>
+      <c r="K7" s="143" t="str">
         <f>$P$12</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="141"/>
+      <c r="L7" s="144"/>
       <c r="O7" s="80"/>
       <c r="S7" s="63"/>
     </row>
@@ -19767,18 +17400,18 @@
         <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
         <v>24</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="131">
         <v>119</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="142">
+      <c r="H8" s="132"/>
+      <c r="I8" s="131">
         <v>7</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="142">
+      <c r="J8" s="132"/>
+      <c r="K8" s="131">
         <v>2</v>
       </c>
-      <c r="L8" s="143"/>
+      <c r="L8" s="136"/>
       <c r="N8" s="86" t="s">
         <v>104</v>
       </c>
@@ -19809,10 +17442,10 @@
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="128">
         <v>24</v>
       </c>
-      <c r="F9" s="148"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
@@ -19820,14 +17453,14 @@
         <f>E9*I9 - K9*I9^2/2</f>
         <v>119</v>
       </c>
-      <c r="I9" s="144">
+      <c r="I9" s="128">
         <v>7</v>
       </c>
-      <c r="J9" s="148"/>
-      <c r="K9" s="144">
+      <c r="J9" s="129"/>
+      <c r="K9" s="128">
         <v>2</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="134"/>
       <c r="N9" s="86" t="s">
         <v>104</v>
       </c>
@@ -19858,14 +17491,14 @@
         <f>SQRT(E10^2 - 2*K10*G10)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="128">
         <v>24</v>
       </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="144">
+      <c r="F10" s="129"/>
+      <c r="G10" s="128">
         <v>119</v>
       </c>
-      <c r="H10" s="148"/>
+      <c r="H10" s="129"/>
       <c r="I10" s="31" t="s">
         <v>84</v>
       </c>
@@ -19873,10 +17506,10 @@
         <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
         <v>7</v>
       </c>
-      <c r="K10" s="144">
+      <c r="K10" s="128">
         <v>2</v>
       </c>
-      <c r="L10" s="145"/>
+      <c r="L10" s="134"/>
       <c r="N10" s="86" t="s">
         <v>104</v>
       </c>
@@ -19907,18 +17540,18 @@
         <f>2*G11/I11 - E11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="128">
         <v>24</v>
       </c>
-      <c r="F11" s="148"/>
-      <c r="G11" s="144">
+      <c r="F11" s="129"/>
+      <c r="G11" s="128">
         <v>119</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="144">
+      <c r="H11" s="129"/>
+      <c r="I11" s="128">
         <v>7</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
@@ -19949,10 +17582,10 @@
       <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="133">
         <v>10</v>
       </c>
-      <c r="D12" s="148"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="32" t="s">
         <v>60</v>
       </c>
@@ -19967,14 +17600,14 @@
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="144">
+      <c r="I12" s="128">
         <v>7</v>
       </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="144">
+      <c r="J12" s="129"/>
+      <c r="K12" s="128">
         <v>2</v>
       </c>
-      <c r="L12" s="145"/>
+      <c r="L12" s="134"/>
       <c r="N12" s="86" t="s">
         <v>105</v>
       </c>
@@ -20001,10 +17634,10 @@
       <c r="B13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="150">
+      <c r="C13" s="133">
         <v>10</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="31" t="s">
         <v>88</v>
       </c>
@@ -20012,10 +17645,10 @@
         <f>SQRT(C13^2 + 2*K13*G13)</f>
         <v>24</v>
       </c>
-      <c r="G13" s="144">
+      <c r="G13" s="128">
         <v>119</v>
       </c>
-      <c r="H13" s="148"/>
+      <c r="H13" s="129"/>
       <c r="I13" s="37" t="s">
         <v>62</v>
       </c>
@@ -20023,10 +17656,10 @@
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="146">
+      <c r="K13" s="126">
         <v>2</v>
       </c>
-      <c r="L13" s="145"/>
+      <c r="L13" s="134"/>
       <c r="O13" s="80" t="s">
         <v>97</v>
       </c>
@@ -20041,10 +17674,10 @@
       <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="150">
+      <c r="C14" s="133">
         <v>10</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="31" t="s">
         <v>89</v>
       </c>
@@ -20052,14 +17685,14 @@
         <f>2*G14/I14 - C14</f>
         <v>24</v>
       </c>
-      <c r="G14" s="144">
+      <c r="G14" s="128">
         <v>119</v>
       </c>
-      <c r="H14" s="148"/>
-      <c r="I14" s="144">
+      <c r="H14" s="129"/>
+      <c r="I14" s="128">
         <v>7</v>
       </c>
-      <c r="J14" s="149"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="87" t="s">
         <v>61</v>
       </c>
@@ -20081,14 +17714,14 @@
       <c r="B15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="133">
         <v>10</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="144">
+      <c r="D15" s="129"/>
+      <c r="E15" s="128">
         <v>24</v>
       </c>
-      <c r="F15" s="148"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="31" t="s">
         <v>90</v>
       </c>
@@ -20103,10 +17736,10 @@
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="144">
+      <c r="K15" s="128">
         <v>2</v>
       </c>
-      <c r="L15" s="145"/>
+      <c r="L15" s="134"/>
       <c r="O15" s="80" t="s">
         <v>99</v>
       </c>
@@ -20121,14 +17754,14 @@
       <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="150">
+      <c r="C16" s="133">
         <v>10</v>
       </c>
-      <c r="D16" s="148"/>
-      <c r="E16" s="144">
+      <c r="D16" s="129"/>
+      <c r="E16" s="128">
         <v>24</v>
       </c>
-      <c r="F16" s="148"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="31" t="s">
         <v>91</v>
       </c>
@@ -20136,10 +17769,10 @@
         <f>(C16+E16)*I16/2</f>
         <v>119</v>
       </c>
-      <c r="I16" s="144">
+      <c r="I16" s="128">
         <v>7</v>
       </c>
-      <c r="J16" s="148"/>
+      <c r="J16" s="129"/>
       <c r="K16" s="78" t="s">
         <v>58</v>
       </c>
@@ -20161,18 +17794,18 @@
       <c r="B17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="152">
+      <c r="C17" s="130">
         <v>10</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="146">
+      <c r="D17" s="127"/>
+      <c r="E17" s="126">
         <v>24</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="146">
+      <c r="F17" s="127"/>
+      <c r="G17" s="126">
         <v>119</v>
       </c>
-      <c r="H17" s="151"/>
+      <c r="H17" s="127"/>
       <c r="I17" s="83" t="s">
         <v>92</v>
       </c>
@@ -20198,91 +17831,71 @@
       <c r="B18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="130" t="str">
+      <c r="C18" s="145" t="str">
         <f>P13</f>
         <v>ω0 [rad/s]</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="str">
+      <c r="D18" s="146"/>
+      <c r="E18" s="147" t="str">
         <f>P14</f>
         <v>ω [rad/s]</v>
       </c>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132" t="str">
+      <c r="F18" s="146"/>
+      <c r="G18" s="147" t="str">
         <f>P15</f>
         <v>φ [rad]</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132" t="str">
+      <c r="H18" s="146"/>
+      <c r="I18" s="147" t="str">
         <f>P16</f>
         <v>t [s]</v>
       </c>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132" t="str">
+      <c r="J18" s="146"/>
+      <c r="K18" s="147" t="str">
         <f>P17</f>
         <v>α [rad/s2]</v>
       </c>
-      <c r="L18" s="133"/>
+      <c r="L18" s="148"/>
     </row>
     <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="126" t="str">
+      <c r="C19" s="149" t="str">
         <f>O13</f>
         <v>Anfangs-Winkelgeschwindigkeit</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128" t="str">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="str">
         <f>O14</f>
         <v>Winkelgeschwindigkeit</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="128" t="str">
+      <c r="F19" s="150"/>
+      <c r="G19" s="151" t="str">
         <f>O15</f>
         <v>Winkel</v>
       </c>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128" t="str">
+      <c r="H19" s="150"/>
+      <c r="I19" s="151" t="str">
         <f>O16</f>
         <v>Zeit</v>
       </c>
-      <c r="J19" s="127"/>
-      <c r="K19" s="128" t="str">
+      <c r="J19" s="150"/>
+      <c r="K19" s="151" t="str">
         <f>O17</f>
         <v>Winkelbeschleunigung</v>
       </c>
-      <c r="L19" s="129"/>
+      <c r="L19" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K6:L6"/>
@@ -20293,16 +17906,36 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
@@ -20319,7 +17952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
   <sheetPr codeName="Tabelle15">
     <pageSetUpPr fitToPage="1"/>
@@ -21842,4 +19475,1160 @@
   <pageSetup paperSize="9" scale="34" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF7D5C-D0F8-40D0-BDC5-363CB671BB60}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:AY19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="9" width="3.26953125" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="51" width="6.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:51" ht="26" x14ac:dyDescent="0.6">
+      <c r="C2" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R5" s="5"/>
+      <c r="S5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="55">
+        <f>MAX(K14:K18)</f>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
+        <f>K12</f>
+        <v>210</v>
+      </c>
+      <c r="X5" s="5">
+        <f>W5</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R6" s="5"/>
+      <c r="S6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="55">
+        <f>MIN(K14:K18)</f>
+        <v>0.86602540378444159</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="55">
+        <f>T6</f>
+        <v>0.86602540378444159</v>
+      </c>
+      <c r="X6" s="55">
+        <f>T5</f>
+        <v>9.9999999999999911</v>
+      </c>
+    </row>
+    <row r="7" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R7" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="119"/>
+      <c r="T7" s="5">
+        <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP7" s="103"/>
+    </row>
+    <row r="8" spans="3:51" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="1"/>
+      <c r="S8" s="39"/>
+      <c r="AI8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="L11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="46">
+        <v>15</v>
+      </c>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+    </row>
+    <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="J12" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="38">
+        <v>210</v>
+      </c>
+      <c r="L12" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0</v>
+      </c>
+      <c r="N12" s="75">
+        <f>M12+$M$11</f>
+        <v>15</v>
+      </c>
+      <c r="O12" s="75">
+        <f t="shared" ref="O12:AY12" si="0">N12+$M$11</f>
+        <v>30</v>
+      </c>
+      <c r="P12" s="75">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q12" s="75">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R12" s="75">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="S12" s="75">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="T12" s="75">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="U12" s="75">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="V12" s="75">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="W12" s="75">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="X12" s="75">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="Y12" s="75">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="Z12" s="75">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="AA12" s="75">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AB12" s="75">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="AC12" s="75">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="AD12" s="75">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="AE12" s="75">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="AF12" s="75">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="AG12" s="75">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="AH12" s="75">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="AI12" s="75">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="AJ12" s="75">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="AK12" s="75">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AL12" s="75">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="AM12" s="75">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="AN12" s="75">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="AO12" s="75">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="AP12" s="75">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="AQ12" s="75">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="AR12" s="75">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="AS12" s="75">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="AT12" s="75">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="AU12" s="75">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="AV12" s="75">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="AW12" s="75">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AX12" s="75">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="AY12" s="75">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="3:51" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="J13" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="65">
+        <f t="shared" ref="K13" si="1">PI()*K12/180</f>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="L13" s="156"/>
+      <c r="M13" s="64">
+        <f>PI()*M12/180</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="64">
+        <f>PI()*N12/180</f>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="O13" s="64">
+        <f t="shared" ref="O13:AY13" si="2">PI()*O12/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="P13" s="64">
+        <f t="shared" si="2"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="Q13" s="64">
+        <f t="shared" si="2"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="R13" s="64">
+        <f t="shared" si="2"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="S13" s="64">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T13" s="64">
+        <f t="shared" si="2"/>
+        <v>1.8325957145940461</v>
+      </c>
+      <c r="U13" s="64">
+        <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="V13" s="64">
+        <f t="shared" si="2"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="W13" s="64">
+        <f t="shared" si="2"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="X13" s="64">
+        <f t="shared" si="2"/>
+        <v>2.8797932657906435</v>
+      </c>
+      <c r="Y13" s="64">
+        <f t="shared" si="2"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="Z13" s="64">
+        <f t="shared" si="2"/>
+        <v>3.4033920413889422</v>
+      </c>
+      <c r="AA13" s="64">
+        <f t="shared" si="2"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="AB13" s="64">
+        <f t="shared" si="2"/>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="AC13" s="64">
+        <f t="shared" si="2"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="AD13" s="64">
+        <f t="shared" si="2"/>
+        <v>4.4505895925855405</v>
+      </c>
+      <c r="AE13" s="64">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="AF13" s="64">
+        <f t="shared" si="2"/>
+        <v>4.9741883681838397</v>
+      </c>
+      <c r="AG13" s="64">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="AH13" s="64">
+        <f t="shared" si="2"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="AI13" s="64">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AJ13" s="64">
+        <f t="shared" si="2"/>
+        <v>6.0213859193804371</v>
+      </c>
+      <c r="AK13" s="64">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="AL13" s="64">
+        <f t="shared" si="2"/>
+        <v>6.5449846949787354</v>
+      </c>
+      <c r="AM13" s="64">
+        <f t="shared" si="2"/>
+        <v>6.8067840827778845</v>
+      </c>
+      <c r="AN13" s="64">
+        <f t="shared" si="2"/>
+        <v>7.0685834705770336</v>
+      </c>
+      <c r="AO13" s="64">
+        <f t="shared" si="2"/>
+        <v>7.3303828583761845</v>
+      </c>
+      <c r="AP13" s="64">
+        <f t="shared" si="2"/>
+        <v>7.5921822461753337</v>
+      </c>
+      <c r="AQ13" s="64">
+        <f t="shared" si="2"/>
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="AR13" s="64">
+        <f t="shared" si="2"/>
+        <v>8.1157810217736319</v>
+      </c>
+      <c r="AS13" s="64">
+        <f t="shared" si="2"/>
+        <v>8.3775804095727811</v>
+      </c>
+      <c r="AT13" s="64">
+        <f t="shared" si="2"/>
+        <v>8.639379797371932</v>
+      </c>
+      <c r="AU13" s="64">
+        <f t="shared" si="2"/>
+        <v>8.9011791851710811</v>
+      </c>
+      <c r="AV13" s="64">
+        <f t="shared" si="2"/>
+        <v>9.1629785729702302</v>
+      </c>
+      <c r="AW13" s="64">
+        <f t="shared" si="2"/>
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="AX13" s="64">
+        <f t="shared" si="2"/>
+        <v>9.6865773485685303</v>
+      </c>
+      <c r="AY13" s="64">
+        <f t="shared" si="2"/>
+        <v>9.9483767363676794</v>
+      </c>
+    </row>
+    <row r="14" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C14" s="42">
+        <v>20</v>
+      </c>
+      <c r="D14" s="42">
+        <v>50</v>
+      </c>
+      <c r="E14" s="42">
+        <v>90</v>
+      </c>
+      <c r="F14" s="73">
+        <f>PI()*E14/180</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="J14" s="58" t="str">
+        <f>_xlfn.CONCAT("U = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(F14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F14,2),""),""),") = ")</f>
+        <v xml:space="preserve">U = 20 * sin(50*x  + 1.57) = </v>
+      </c>
+      <c r="K14" s="66">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*K13 + $F$14),0)</f>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="54">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*M13 + $F$14),0)</f>
+        <v>20</v>
+      </c>
+      <c r="N14" s="54">
+        <f t="shared" ref="N14:AY14" si="3">IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),0)</f>
+        <v>17.320508075688785</v>
+      </c>
+      <c r="O14" s="54">
+        <f t="shared" si="3"/>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="P14" s="54">
+        <f t="shared" si="3"/>
+        <v>-3.9200413748385898E-14</v>
+      </c>
+      <c r="Q14" s="54">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999538</v>
+      </c>
+      <c r="R14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.3205080756887</v>
+      </c>
+      <c r="S14" s="54">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="T14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.320508075688796</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="3"/>
+        <v>-10.000000000000247</v>
+      </c>
+      <c r="V14" s="54">
+        <f t="shared" si="3"/>
+        <v>-2.3521982972507516E-13</v>
+      </c>
+      <c r="W14" s="54">
+        <f t="shared" si="3"/>
+        <v>9.9999999999998384</v>
+      </c>
+      <c r="X14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075688707</v>
+      </c>
+      <c r="Y14" s="54">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Z14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075689077</v>
+      </c>
+      <c r="AA14" s="54">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="AB14" s="54">
+        <f t="shared" si="3"/>
+        <v>5.0964007319853621E-13</v>
+      </c>
+      <c r="AC14" s="54">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999996021</v>
+      </c>
+      <c r="AD14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.320508075688853</v>
+      </c>
+      <c r="AE14" s="54">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="AF14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.320508075688647</v>
+      </c>
+      <c r="AG14" s="54">
+        <f t="shared" si="3"/>
+        <v>-10.000000000000229</v>
+      </c>
+      <c r="AH14" s="54">
+        <f t="shared" si="3"/>
+        <v>-7.8406031667199727E-13</v>
+      </c>
+      <c r="AI14" s="54">
+        <f t="shared" si="3"/>
+        <v>9.9999999999998561</v>
+      </c>
+      <c r="AJ14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075688998</v>
+      </c>
+      <c r="AK14" s="54">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AL14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075689066</v>
+      </c>
+      <c r="AM14" s="54">
+        <f t="shared" si="3"/>
+        <v>10.000000000000959</v>
+      </c>
+      <c r="AN14" s="54">
+        <f t="shared" si="3"/>
+        <v>1.6269147487535385E-12</v>
+      </c>
+      <c r="AO14" s="54">
+        <f t="shared" si="3"/>
+        <v>-10.00000000000011</v>
+      </c>
+      <c r="AP14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.320508075688576</v>
+      </c>
+      <c r="AQ14" s="54">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="AR14" s="54">
+        <f t="shared" si="3"/>
+        <v>-17.32050807568892</v>
+      </c>
+      <c r="AS14" s="54">
+        <f t="shared" si="3"/>
+        <v>-10.000000000000703</v>
+      </c>
+      <c r="AT14" s="54">
+        <f t="shared" si="3"/>
+        <v>9.4083595081340121E-13</v>
+      </c>
+      <c r="AU14" s="54">
+        <f t="shared" si="3"/>
+        <v>10.000000000000364</v>
+      </c>
+      <c r="AV14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075688721</v>
+      </c>
+      <c r="AW14" s="54">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AX14" s="54">
+        <f t="shared" si="3"/>
+        <v>17.320508075688203</v>
+      </c>
+      <c r="AY14" s="54">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994653</v>
+      </c>
+    </row>
+    <row r="15" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42">
+        <v>50</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0</v>
+      </c>
+      <c r="F15" s="73">
+        <f t="shared" ref="F15" si="4">PI()*E15/180</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="J15" s="97" t="str">
+        <f>_xlfn.CONCAT("I = ",IF(C15&lt;&gt;1,_xlfn.CONCAT(ROUND(C15,2)," *"),"")," sin(",IF(D15&lt;&gt;1,_xlfn.CONCAT(ROUND(D15,2),"*"),""),"x ",IF(F15&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F15,2),""),""),") = ")</f>
+        <v xml:space="preserve">I =  sin(50*x ) = </v>
+      </c>
+      <c r="K15" s="98">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*K13 + $F$15),"")</f>
+        <v>0.86602540378444159</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="55">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*M13 + $F$15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="55">
+        <f t="shared" ref="N15:AY15" si="5">IF($L$15=$AI$7,$C$15*SIN($D$15*N13 + $F$15),0)</f>
+        <v>0.49999999999999906</v>
+      </c>
+      <c r="O15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.8660254037844376</v>
+      </c>
+      <c r="P15" s="55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.86602540378444082</v>
+      </c>
+      <c r="R15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.50000000000000167</v>
+      </c>
+      <c r="S15" s="55">
+        <f t="shared" si="5"/>
+        <v>-4.898425415289509E-16</v>
+      </c>
+      <c r="T15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.50000000000000255</v>
+      </c>
+      <c r="U15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443427</v>
+      </c>
+      <c r="V15" s="55">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378444059</v>
+      </c>
+      <c r="X15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.50000000000000122</v>
+      </c>
+      <c r="Y15" s="55">
+        <f t="shared" si="5"/>
+        <v>9.7968508305790181E-16</v>
+      </c>
+      <c r="Z15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.49999999999997835</v>
+      </c>
+      <c r="AA15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.86602540378444159</v>
+      </c>
+      <c r="AB15" s="55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.86602540378444748</v>
+      </c>
+      <c r="AD15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.49999999999998856</v>
+      </c>
+      <c r="AE15" s="55">
+        <f t="shared" si="5"/>
+        <v>1.2741327090615151E-14</v>
+      </c>
+      <c r="AF15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.50000000000001565</v>
+      </c>
+      <c r="AG15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378443471</v>
+      </c>
+      <c r="AH15" s="55">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AI15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378444015</v>
+      </c>
+      <c r="AJ15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.4999999999999758</v>
+      </c>
+      <c r="AK15" s="55">
+        <f t="shared" si="5"/>
+        <v>1.9593701661158036E-15</v>
+      </c>
+      <c r="AL15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.49999999999997918</v>
+      </c>
+      <c r="AM15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.86602540378441362</v>
+      </c>
+      <c r="AN15" s="55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.86602540378443271</v>
+      </c>
+      <c r="AP15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.50000000000001232</v>
+      </c>
+      <c r="AQ15" s="55">
+        <f t="shared" si="5"/>
+        <v>4.0183351437961257E-14</v>
+      </c>
+      <c r="AR15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.49999999999999195</v>
+      </c>
+      <c r="AS15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378442106</v>
+      </c>
+      <c r="AT15" s="55">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AU15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.86602540378442538</v>
+      </c>
+      <c r="AV15" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.49999999999999956</v>
+      </c>
+      <c r="AW15" s="55">
+        <f t="shared" si="5"/>
+        <v>-2.5482654181230302E-14</v>
+      </c>
+      <c r="AX15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.50000000000005385</v>
+      </c>
+      <c r="AY15" s="55">
+        <f t="shared" si="5"/>
+        <v>0.8660254037844568</v>
+      </c>
+    </row>
+    <row r="16" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="41"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+    </row>
+    <row r="17" spans="10:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="41"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+    </row>
+    <row r="18" spans="10:51" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J18" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="101">
+        <f>IF($L$18=$AI$7,K14*K15,"")</f>
+        <v>8.6602540378444086</v>
+      </c>
+      <c r="L18" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="55">
+        <f>IF($L$18=$AI$7,M14*M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="55">
+        <f t="shared" ref="N18:AY18" si="6">IF($L$18=$AI$7,N14*N15,0)</f>
+        <v>8.6602540378443766</v>
+      </c>
+      <c r="O18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378443837</v>
+      </c>
+      <c r="P18" s="55">
+        <f t="shared" si="6"/>
+        <v>-3.9200413748385898E-14</v>
+      </c>
+      <c r="Q18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378443678</v>
+      </c>
+      <c r="R18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378443784</v>
+      </c>
+      <c r="S18" s="55">
+        <f t="shared" si="6"/>
+        <v>9.7968508305790181E-15</v>
+      </c>
+      <c r="T18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378444424</v>
+      </c>
+      <c r="U18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378445561</v>
+      </c>
+      <c r="V18" s="55">
+        <f t="shared" si="6"/>
+        <v>2.3521982972507516E-13</v>
+      </c>
+      <c r="W18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378442665</v>
+      </c>
+      <c r="X18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378443749</v>
+      </c>
+      <c r="Y18" s="55">
+        <f t="shared" si="6"/>
+        <v>1.9593701661158036E-14</v>
+      </c>
+      <c r="Z18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378441635</v>
+      </c>
+      <c r="AA18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378444086</v>
+      </c>
+      <c r="AB18" s="55">
+        <f t="shared" si="6"/>
+        <v>5.0964007319853621E-13</v>
+      </c>
+      <c r="AC18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378441297</v>
+      </c>
+      <c r="AD18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378442274</v>
+      </c>
+      <c r="AE18" s="55">
+        <f t="shared" si="6"/>
+        <v>-2.5482654181230302E-13</v>
+      </c>
+      <c r="AF18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378445951</v>
+      </c>
+      <c r="AG18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378445454</v>
+      </c>
+      <c r="AH18" s="55">
+        <f t="shared" si="6"/>
+        <v>7.8406031667199727E-13</v>
+      </c>
+      <c r="AI18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378442772</v>
+      </c>
+      <c r="AJ18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.66025403784408</v>
+      </c>
+      <c r="AK18" s="55">
+        <f t="shared" si="6"/>
+        <v>3.9187403322316072E-14</v>
+      </c>
+      <c r="AL18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378441724</v>
+      </c>
+      <c r="AM18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378449664</v>
+      </c>
+      <c r="AN18" s="55">
+        <f t="shared" si="6"/>
+        <v>1.6269147487535385E-12</v>
+      </c>
+      <c r="AO18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378444228</v>
+      </c>
+      <c r="AP18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.660254037844501</v>
+      </c>
+      <c r="AQ18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.0366702875922513E-13</v>
+      </c>
+      <c r="AR18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378443216</v>
+      </c>
+      <c r="AS18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.660254037844819</v>
+      </c>
+      <c r="AT18" s="55">
+        <f t="shared" si="6"/>
+        <v>-9.4083595081340121E-13</v>
+      </c>
+      <c r="AU18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378445685</v>
+      </c>
+      <c r="AV18" s="55">
+        <f t="shared" si="6"/>
+        <v>-8.6602540378443535</v>
+      </c>
+      <c r="AW18" s="55">
+        <f t="shared" si="6"/>
+        <v>-5.0965308362460604E-13</v>
+      </c>
+      <c r="AX18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378450339</v>
+      </c>
+      <c r="AY18" s="55">
+        <f t="shared" si="6"/>
+        <v>8.6602540378441049</v>
+      </c>
+    </row>
+    <row r="19" spans="10:51" x14ac:dyDescent="0.35">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:L13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14:L15 L18 AP7" xr:uid="{C8E29193-96AE-404C-87B8-B84194F32E1C}">
+      <formula1>$AI$7:$AI$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>